--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_16-42.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_16-42.xlsx
@@ -140,6 +140,12 @@
     <t>KERELLA LOTION 30 ML</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
   </si>
   <si>
@@ -254,22 +260,19 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-6:0</t>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>7:0</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو نونو 200ملل </t>
@@ -1542,17 +1545,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1560,7 +1563,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1568,17 +1571,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1586,7 +1589,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1594,17 +1597,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1620,17 +1623,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1638,7 +1641,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1646,17 +1649,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1664,7 +1667,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1672,17 +1675,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1690,7 +1693,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1698,13 +1701,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1716,7 +1719,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1724,13 +1727,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1742,7 +1745,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1750,17 +1753,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1776,17 +1779,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1794,7 +1797,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1802,13 +1805,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1820,7 +1823,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1828,17 +1831,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1846,7 +1849,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1854,13 +1857,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1880,17 +1883,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1898,7 +1901,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1912,7 +1915,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1924,7 +1927,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1932,17 +1935,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>20.399999999999999</v>
+        <v>52</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1958,17 +1961,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1976,7 +1979,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1984,17 +1987,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2010,13 +2013,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2028,7 +2031,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2036,17 +2039,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2054,7 +2057,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2062,17 +2065,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2080,7 +2083,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2088,17 +2091,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2106,7 +2109,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2114,17 +2117,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2132,7 +2135,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2140,13 +2143,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2158,7 +2161,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2166,13 +2169,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2184,7 +2187,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2198,7 +2201,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2210,7 +2213,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2218,17 +2221,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2236,7 +2239,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2244,17 +2247,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>34</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2270,13 +2273,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>-375</v>
+        <v>34</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2288,7 +2291,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2296,17 +2299,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>14</v>
+        <v>-375</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2314,7 +2317,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2328,11 +2331,11 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2340,7 +2343,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2348,17 +2351,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>11.880000000000001</v>
+        <v>40</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2380,11 +2383,11 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>2</v>
+        <v>13.880000000000001</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2392,7 +2395,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2400,13 +2403,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>188.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2418,7 +2421,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2426,17 +2429,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>36</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2452,17 +2455,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2478,13 +2481,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2496,7 +2499,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2504,13 +2507,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2530,13 +2533,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2556,13 +2559,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2582,13 +2585,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2608,13 +2611,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2634,51 +2637,77 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="72" ht="26.25" customHeight="1">
-      <c r="K72" s="10">
-        <v>2798.5599999999999</v>
-      </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="11">
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>69</v>
+      </c>
+      <c t="s" r="B72" s="7">
+        <v>96</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c t="s" r="H72" s="8">
         <v>97</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c t="s" r="F73" s="12">
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9">
+        <v>45</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c t="s" r="N72" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" ht="25.5" customHeight="1">
+      <c r="K73" s="10">
+        <v>2812.5599999999999</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" ht="17.25" customHeight="1">
+      <c t="s" r="A74" s="11">
         <v>98</v>
       </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="13"/>
-      <c t="s" r="I73" s="14">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c t="s" r="F74" s="12">
         <v>99</v>
       </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c t="s" r="I74" s="14">
+        <v>100</v>
+      </c>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="215">
+  <mergeCells count="218">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2890,10 +2919,13 @@
     <mergeCell ref="B71:G71"/>
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="I73:N73"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:N74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
